--- a/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/First_output/first_image_rmse_jpg.xlsx
+++ b/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/First_output/first_image_rmse_jpg.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>image_name</t>
-  </si>
-  <si>
-    <t>dice</t>
-  </si>
-  <si>
-    <t>subin</t>
-  </si>
-  <si>
-    <t>point_rmse</t>
-  </si>
-  <si>
-    <t>case1.jpg</t>
-  </si>
-  <si>
-    <t>case2.jpg</t>
-  </si>
-  <si>
-    <t>case3.jpg</t>
-  </si>
-  <si>
-    <t>case4.jpg</t>
-  </si>
-  <si>
-    <t>case5.jpg</t>
-  </si>
-  <si>
-    <t>case6.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,130 +420,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>image_name</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>subin</t>
+        </is>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0.6097026679621259</v>
-      </c>
-      <c r="D2">
-        <v>0.6969438365774837</v>
-      </c>
-      <c r="E2">
-        <v>406.5292117425266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.7246730448521022</v>
-      </c>
-      <c r="D3">
-        <v>0.8117213806049808</v>
-      </c>
-      <c r="E3">
-        <v>467.9236048758387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0.797732567168815</v>
-      </c>
-      <c r="D4">
-        <v>0.8634065014817134</v>
-      </c>
-      <c r="E4">
-        <v>464.0953565809509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.7227903717991466</v>
-      </c>
-      <c r="D5">
-        <v>0.8253295598749566</v>
-      </c>
-      <c r="E5">
-        <v>826.7795957811247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.7933777230034113</v>
-      </c>
-      <c r="D6">
-        <v>0.8758510458728053</v>
-      </c>
-      <c r="E6">
-        <v>11.40175425099138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.8786591354266708</v>
-      </c>
-      <c r="D7">
-        <v>0.9396244068191419</v>
-      </c>
-      <c r="E7">
-        <v>15.03329637837291</v>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>point_rmse</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/First_output/first_image_rmse_jpg.xlsx
+++ b/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/First_output/first_image_rmse_jpg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,196 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>case8.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3628268236574567</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5240001096583047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>390.1179308875715</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>case3.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3814438390611903</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6640823082392391</v>
+      </c>
+      <c r="E3" t="n">
+        <v>173.4877517290486</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>case1.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1289848089066978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.289124052598042</v>
+      </c>
+      <c r="E4" t="n">
+        <v>580.2378822517537</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>case4.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2805094826318814</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5004701842404512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>618.3219226260702</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>case7.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1886206460699518</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3377254653337746</v>
+      </c>
+      <c r="E6" t="n">
+        <v>900.9242476479362</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>case6.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6747067207543033</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.912234011101565</v>
+      </c>
+      <c r="E7" t="n">
+        <v>293.7898909084518</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>case2.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1891805206607153</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3909351832340384</v>
+      </c>
+      <c r="E8" t="n">
+        <v>246.2214450449026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>case9.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2050847988965171</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3495428776366822</v>
+      </c>
+      <c r="E9" t="n">
+        <v>516.5196027257823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>case5.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4282265789641739</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.628684747589797</v>
+      </c>
+      <c r="E10" t="n">
+        <v>862.2670699962977</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>case10.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5774650181628631</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7829464683361268</v>
+      </c>
+      <c r="E11" t="n">
+        <v>516.8911877755318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/First_output/first_image_rmse_jpg.xlsx
+++ b/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/First_output/first_image_rmse_jpg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>case8.jpg</t>
+          <t>case139.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3628268236574567</v>
+        <v>0.4227119189319608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5240001096583047</v>
+        <v>0.6254531187544587</v>
       </c>
       <c r="E2" t="n">
-        <v>390.1179308875715</v>
+        <v>113.5693620656557</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>case3.jpg</t>
+          <t>case8.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3814438390611903</v>
+        <v>0.553408563920235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6640823082392391</v>
+        <v>0.7357916286177854</v>
       </c>
       <c r="E3" t="n">
-        <v>173.4877517290486</v>
+        <v>3.535533905932738</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>case1.jpg</t>
+          <t>case19.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1289848089066978</v>
+        <v>0.5349539114120239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289124052598042</v>
+        <v>0.7169327982238907</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2378822517537</v>
+        <v>25.5440795488896</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>case4.jpg</t>
+          <t>case144.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2805094826318814</v>
+        <v>0.4708765315739868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5004701842404512</v>
+        <v>0.6330851015705115</v>
       </c>
       <c r="E5" t="n">
-        <v>618.3219226260702</v>
+        <v>125.1958465764739</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>case7.jpg</t>
+          <t>case113.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1886206460699518</v>
+        <v>0.5473609129814551</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3377254653337746</v>
+        <v>0.7542346373424619</v>
       </c>
       <c r="E6" t="n">
-        <v>900.9242476479362</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>case6.jpg</t>
+          <t>case130.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6747067207543033</v>
+        <v>0.5543642611683849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.912234011101565</v>
+        <v>0.747112229263285</v>
       </c>
       <c r="E7" t="n">
-        <v>293.7898909084518</v>
+        <v>196.7587355112855</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>case2.jpg</t>
+          <t>case3.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1891805206607153</v>
+        <v>0.4491797432239658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3909351832340384</v>
+        <v>0.6927803550245692</v>
       </c>
       <c r="E8" t="n">
-        <v>246.2214450449026</v>
+        <v>22.63846284534354</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>case9.jpg</t>
+          <t>case63.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2050847988965171</v>
+        <v>0.5272356922268218</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3495428776366822</v>
+        <v>0.7329598025327524</v>
       </c>
       <c r="E9" t="n">
-        <v>516.5196027257823</v>
+        <v>2.82842712474619</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>case5.jpg</t>
+          <t>case31.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4282265789641739</v>
+        <v>0.4630694604190629</v>
       </c>
       <c r="D10" t="n">
-        <v>0.628684747589797</v>
+        <v>0.6644243821142292</v>
       </c>
       <c r="E10" t="n">
-        <v>862.2670699962977</v>
+        <v>197.5512591708795</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,2677 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>case132.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4140268363535759</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.729528469644632</v>
+      </c>
+      <c r="E11" t="n">
+        <v>242.4231837098094</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>case104.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5256127886323269</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7316549259131446</v>
+      </c>
+      <c r="E12" t="n">
+        <v>205.0390206765532</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>case80.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3555936073059361</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6420837290065634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>357.4688797643789</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>case131.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2882718607542478</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4400171969983513</v>
+      </c>
+      <c r="E14" t="n">
+        <v>287.0966736136105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>case135.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.655936281423712</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8899224944111829</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26.0768096208106</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>case127.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.638619620007755</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8457065061645658</v>
+      </c>
+      <c r="E16" t="n">
+        <v>273.7087868520118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>case98.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3616315702205273</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5183937494888533</v>
+      </c>
+      <c r="E17" t="n">
+        <v>91.78235124467012</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>case134.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6341976173791171</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8649676589962514</v>
+      </c>
+      <c r="E18" t="n">
+        <v>196.8400365779279</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>case124.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4504221155437841</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6385881156897296</v>
+      </c>
+      <c r="E19" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>case15.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7156215149695462</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9208606896285724</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.867127793433</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>case46.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3724909933093155</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5618668312310624</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.246211251235321</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>case37.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2901922129127649</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4931288414677554</v>
+      </c>
+      <c r="E22" t="n">
+        <v>63.38769596696191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>case34.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5596255962559625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8317509436001266</v>
+      </c>
+      <c r="E23" t="n">
+        <v>190.0026315607234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>case22.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5152820168206529</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.56765427016424</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>case28.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.449586188484471</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5884925517403283</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.91547594742265</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>case83.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3329553508150248</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4815119548073962</v>
+      </c>
+      <c r="E26" t="n">
+        <v>257.0077819833477</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>case112.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3512153027470157</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6937429478303572</v>
+      </c>
+      <c r="E27" t="n">
+        <v>102.637712367336</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>case99.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7553850178773873</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9596149120217888</v>
+      </c>
+      <c r="E28" t="n">
+        <v>45.34313619501854</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>case20.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4563081009296149</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7080139792861836</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>case40.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7460775473399459</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9507557020241153</v>
+      </c>
+      <c r="E30" t="n">
+        <v>173.0332338020647</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>case120.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2824565696109616</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5065944872596544</v>
+      </c>
+      <c r="E31" t="n">
+        <v>246.0741758088402</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>case114.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5140818422617439</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6828655654326086</v>
+      </c>
+      <c r="E32" t="n">
+        <v>126.6668859647224</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>case32.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.302684356680037</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4083811415724847</v>
+      </c>
+      <c r="E33" t="n">
+        <v>209.8880654063017</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>case66.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4688088283024992</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6585460487545323</v>
+      </c>
+      <c r="E34" t="n">
+        <v>39.65476011779671</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>case30.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3842878248022942</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7597822787976148</v>
+      </c>
+      <c r="E35" t="n">
+        <v>235.0287216490784</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>case71.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6442358242583552</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.866270828087946</v>
+      </c>
+      <c r="E36" t="n">
+        <v>249.7298540423231</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>case101.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2326510234648028</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4549098099615558</v>
+      </c>
+      <c r="E37" t="n">
+        <v>144.5423813281074</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>case91.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5791452562977817</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7619640750966604</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.82842712474619</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>case1.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6986096256684492</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9062420473952226</v>
+      </c>
+      <c r="E39" t="n">
+        <v>310.0040322318405</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>case36.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5135396518375241</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.841741733031942</v>
+      </c>
+      <c r="E40" t="n">
+        <v>146.6714014387263</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>case54.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4939082220763114</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8212354321293867</v>
+      </c>
+      <c r="E41" t="n">
+        <v>162.7651682639747</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>case146.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.476620029455081</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6734990527681582</v>
+      </c>
+      <c r="E42" t="n">
+        <v>98.31836044198459</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>case16.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5787494628276751</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7331492037662697</v>
+      </c>
+      <c r="E43" t="n">
+        <v>138.8524396616783</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>case60.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.678983400543937</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8620571031400348</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.91547594742265</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>case82.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.6640552135795561</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8882180671748995</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.121320343559642</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>case48.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3610252318739404</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5742564147273248</v>
+      </c>
+      <c r="E46" t="n">
+        <v>37.48332962798263</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>case125.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.518186828327363</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7194618832547421</v>
+      </c>
+      <c r="E47" t="n">
+        <v>134.1827112559588</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>case142.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5281195880047398</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6967981032131429</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.121320343559642</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>case67.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7603560424512154</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9612905261258202</v>
+      </c>
+      <c r="E49" t="n">
+        <v>263.5943853726782</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>case141.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4654923097147364</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6425743517970346</v>
+      </c>
+      <c r="E50" t="n">
+        <v>38.8329756778952</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>case92.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1880906646177488</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.3514720157113738</v>
+      </c>
+      <c r="E51" t="n">
+        <v>83.73768566183328</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>case97.jpg</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2117724867724868</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4055016241255843</v>
+      </c>
+      <c r="E52" t="n">
+        <v>227.2542628863098</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>case110.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6113599713313026</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7871688300707709</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.82842712474619</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>case35.jpg</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4276104124012869</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6021886728225782</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.5974135047432</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>case76.jpg</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5744873589722473</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7668022703162638</v>
+      </c>
+      <c r="E55" t="n">
+        <v>265.8843733655665</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>case13.jpg</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5277049794084613</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7724020120426421</v>
+      </c>
+      <c r="E56" t="n">
+        <v>265.0820627654765</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>case96.jpg</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.7206124347141732</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9093389505686242</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.121320343559642</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>case81.jpg</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5230052417006407</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7067040302525076</v>
+      </c>
+      <c r="E58" t="n">
+        <v>267.2087199175955</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>case108.jpg</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.6018490903668356</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.819317632881297</v>
+      </c>
+      <c r="E59" t="n">
+        <v>158.3445610054226</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>case122.jpg</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5029539800995025</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.7287268557560747</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8.48528137423857</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>case116.jpg</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6452648475120385</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8568757528824618</v>
+      </c>
+      <c r="E61" t="n">
+        <v>230.7390300751046</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>case24.jpg</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4273610765013706</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6863269013012395</v>
+      </c>
+      <c r="E62" t="n">
+        <v>283.90931650793</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>case87.jpg</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.524481894784787</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7024910093172058</v>
+      </c>
+      <c r="E63" t="n">
+        <v>223.3931511931375</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>case128.jpg</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6781629116117851</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8473017104707246</v>
+      </c>
+      <c r="E64" t="n">
+        <v>210.4899047460471</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>case136.jpg</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3529090909090909</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.6120539378924452</v>
+      </c>
+      <c r="E65" t="n">
+        <v>23.43074902771996</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>case44.jpg</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6838721528288023</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8643644893123157</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.123105625617661</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>case53.jpg</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6652699871595593</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.883179119292625</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.82842712474619</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>case137.jpg</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6088510638297873</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7928405735500117</v>
+      </c>
+      <c r="E68" t="n">
+        <v>210.1820639350561</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>case77.jpg</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5485136741973841</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7269207275320091</v>
+      </c>
+      <c r="E69" t="n">
+        <v>310.3369136922</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>case111.jpg</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5657561443143698</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.7993331577136553</v>
+      </c>
+      <c r="E70" t="n">
+        <v>125.5906047441448</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>case57.jpg</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5112208647430898</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.6894058457889488</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13.72953021774598</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>case117.jpg</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6777866560127846</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8652539024365209</v>
+      </c>
+      <c r="E72" t="n">
+        <v>198.1880420207032</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>case73.jpg</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.3612677425627066</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6479831884724486</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.3824115301167</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>case149.jpg</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5747860345061813</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.7689512703606356</v>
+      </c>
+      <c r="E74" t="n">
+        <v>251.4527788671265</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>case12.jpg</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.2641644325290438</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.493982787833917</v>
+      </c>
+      <c r="E75" t="n">
+        <v>359.9222138184861</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>case11.jpg</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4826181613877379</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7908990277618537</v>
+      </c>
+      <c r="E76" t="n">
+        <v>132.1533200491006</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>case62.jpg</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.6228395061728395</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8693898821466635</v>
+      </c>
+      <c r="E77" t="n">
+        <v>186.0967490312499</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>case68.jpg</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.2701071560537012</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.376203189191452</v>
+      </c>
+      <c r="E78" t="n">
+        <v>285.9545418418809</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>case38.jpg</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6132659507264687</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8234661595290763</v>
+      </c>
+      <c r="E79" t="n">
+        <v>237.4531532744933</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>case4.jpg</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.2724058688350716</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.5253927692354863</v>
+      </c>
+      <c r="E80" t="n">
+        <v>205.057309062613</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>case39.jpg</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6509178881457236</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8385682005680019</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.82842712474619</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>case7.jpg</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1183850517183851</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.3658667501137913</v>
+      </c>
+      <c r="E82" t="n">
+        <v>34.53983207834109</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>case6.jpg</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5795003203074952</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7585070638368205</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.121320343559642</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>case52.jpg</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5939585528626624</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7989056883340331</v>
+      </c>
+      <c r="E84" t="n">
+        <v>63.24555320336759</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>case94.jpg</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6787289719626168</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9267399795749456</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7.071067811865476</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>case69.jpg</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.6042992504596238</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7526175147051255</v>
+      </c>
+      <c r="E86" t="n">
+        <v>139.6012177597316</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>case143.jpg</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5668049228258653</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7628392236921285</v>
+      </c>
+      <c r="E87" t="n">
+        <v>131.5465697006197</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>case118.jpg</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1852336825141015</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.4071850776109727</v>
+      </c>
+      <c r="E88" t="n">
+        <v>229.4558781116753</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>case126.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5075140186915887</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7792971629814303</v>
+      </c>
+      <c r="E89" t="n">
+        <v>185.9462287867113</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>case2.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1655789669960843</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.352899180341329</v>
+      </c>
+      <c r="E90" t="n">
+        <v>205.9623752047932</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>case17.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.2793475354309653</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5143204304532341</v>
+      </c>
+      <c r="E91" t="n">
+        <v>236.1366130018808</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>case47.jpg</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.58558258358325</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.8461886519153411</v>
+      </c>
+      <c r="E92" t="n">
+        <v>197.1205215090504</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>case58.jpg</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.5462113620596624</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7344985176306358</v>
+      </c>
+      <c r="E93" t="n">
+        <v>66.00378777009695</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>case59.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.3371900826446281</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.633772804262889</v>
+      </c>
+      <c r="E94" t="n">
+        <v>194.3630623343849</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>case86.jpg</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.6594522600516107</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.845548919853165</v>
+      </c>
+      <c r="E95" t="n">
+        <v>268.6047281787869</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>case9.jpg</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.2926458478494964</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5194517519742379</v>
+      </c>
+      <c r="E96" t="n">
+        <v>205.0609665440988</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>case84.jpg</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.5998637834156308</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.7749061015172847</v>
+      </c>
+      <c r="E97" t="n">
+        <v>219.8931558734832</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>case147.jpg</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.5528535006864091</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.7554689844203031</v>
+      </c>
+      <c r="E98" t="n">
+        <v>131.5769736694077</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>case49.jpg</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.3593776141877196</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.563632594066912</v>
+      </c>
+      <c r="E99" t="n">
+        <v>66.40030120413611</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>case89.jpg</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4248189517613846</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.6839613926512293</v>
+      </c>
+      <c r="E100" t="n">
+        <v>308.5854824841895</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>case55.jpg</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.6225409566418844</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.7816348970067239</v>
+      </c>
+      <c r="E101" t="n">
+        <v>76.21351586168952</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>case26.jpg</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.6016621948825339</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.8455699112683546</v>
+      </c>
+      <c r="E102" t="n">
+        <v>226.0796319883771</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>case74.jpg</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.6902841637144795</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.854382845729636</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.23606797749979</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>case70.jpg</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.4445331205107741</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.6550913561217546</v>
+      </c>
+      <c r="E104" t="n">
+        <v>135.6650286551402</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>case29.jpg</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.4161831582248706</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.7547678415836111</v>
+      </c>
+      <c r="E105" t="n">
+        <v>203.4158302591025</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>case148.jpg</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.7254829580410975</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9189572967919746</v>
+      </c>
+      <c r="E106" t="n">
+        <v>191.4484264756438</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>case103.jpg</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.3824572221365808</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5803991459489686</v>
+      </c>
+      <c r="E107" t="n">
+        <v>263.1510972806308</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>case123.jpg</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.7073893509224739</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.8649006555885985</v>
+      </c>
+      <c r="E108" t="n">
+        <v>95.90099061010788</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>case119.jpg</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.3807316669425592</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.654559172238508</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.944271909999159</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>case107.jpg</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.613527165208821</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.8142169736746925</v>
+      </c>
+      <c r="E110" t="n">
+        <v>342.8797165187815</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>case88.jpg</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.4885013623978202</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.7307380578091296</v>
+      </c>
+      <c r="E111" t="n">
+        <v>288.9195389723582</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>case50.jpg</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5690658499234303</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.7840320268686689</v>
+      </c>
+      <c r="E112" t="n">
+        <v>93.78965827851171</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>case41.jpg</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5592833304057615</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.7417492313074965</v>
+      </c>
+      <c r="E113" t="n">
+        <v>278.4115658517081</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>case14.jpg</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.6528694484841705</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9198232992229403</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>case109.jpg</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5127817110738799</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.7431748535241161</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.211102550927978</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>case121.jpg</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4914729703035491</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6781299129809415</v>
+      </c>
+      <c r="E116" t="n">
+        <v>169.4461566398011</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>case115.jpg</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4239864864864865</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5799892270829219</v>
+      </c>
+      <c r="E117" t="n">
+        <v>57.0087712549569</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>case102.jpg</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5294432958113179</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.7082005111065195</v>
+      </c>
+      <c r="E118" t="n">
+        <v>362.0393625008198</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>case138.jpg</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4539484222329008</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6906837690094992</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>case79.jpg</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4869251577998197</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6775438020798418</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.91547594742265</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>case33.jpg</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5716908149216547</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.7881629440533536</v>
+      </c>
+      <c r="E121" t="n">
+        <v>34.71310991541957</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>case105.jpg</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4530287627817975</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6705624296645998</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.385164807134504</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>case5.jpg</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3329038303853813</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4959194334469831</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>case25.jpg</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4864797352151377</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.6759851231288179</v>
+      </c>
+      <c r="E124" t="n">
+        <v>152.7350647362943</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>case129.jpg</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.1894866208591699</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.3228601989070184</v>
+      </c>
+      <c r="E125" t="n">
+        <v>114.2803570172932</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>case145.jpg</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4391932431808742</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6500678689603065</v>
+      </c>
+      <c r="E126" t="n">
+        <v>123.3085560697229</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>case27.jpg</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.4874053992996724</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.8001707868269865</v>
+      </c>
+      <c r="E127" t="n">
+        <v>162.9002762428597</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>case21.jpg</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.7638349065334074</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9473011949924413</v>
+      </c>
+      <c r="E128" t="n">
+        <v>151.837083744387</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>case18.jpg</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.351468798887537</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6604105507214222</v>
+      </c>
+      <c r="E129" t="n">
+        <v>239.4504124030694</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>case106.jpg</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5163770321133979</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.7237866929616648</v>
+      </c>
+      <c r="E130" t="n">
+        <v>108.6393114852998</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>case90.jpg</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.618120085775554</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9345632168543565</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.708203932499369</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>case75.jpg</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.8042059922721226</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.98156385687228</v>
+      </c>
+      <c r="E132" t="n">
+        <v>263.7460900184115</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>case150.jpg</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4440011399259048</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.6507145378644517</v>
+      </c>
+      <c r="E133" t="n">
+        <v>321.1385993617086</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>case61.jpg</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5753103313459095</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.7940810068320792</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.121320343559642</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>case10.jpg</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.5774650181628631</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7829464683361268</v>
-      </c>
-      <c r="E11" t="n">
-        <v>516.8911877755318</v>
+      <c r="C135" t="n">
+        <v>0.4275726458378851</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6860050371673181</v>
+      </c>
+      <c r="E135" t="n">
+        <v>211.0462034721307</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>case51.jpg</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5862094126231302</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.8127665598726073</v>
+      </c>
+      <c r="E136" t="n">
+        <v>116.8118144709686</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>case45.jpg</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.3693961793222617</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6996252884033112</v>
+      </c>
+      <c r="E137" t="n">
+        <v>212.042448580467</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>case95.jpg</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.3711270578303081</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.6196257346351869</v>
+      </c>
+      <c r="E138" t="n">
+        <v>29.02585054739998</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>case65.jpg</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.6194125159642401</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.8025775757245632</v>
+      </c>
+      <c r="E139" t="n">
+        <v>260.2498799231231</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>case64.jpg</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5779895337030384</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.7534424276258505</v>
+      </c>
+      <c r="E140" t="n">
+        <v>220.6275141499808</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>case85.jpg</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6063930948723576</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.8155866453548102</v>
+      </c>
+      <c r="E141" t="n">
+        <v>114.2015761712596</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>case140.jpg</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.3803308544543937</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5710842246116246</v>
+      </c>
+      <c r="E142" t="n">
+        <v>212.5299978826519</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>case100.jpg</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.684329137580388</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.8508154840803415</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.121320343559642</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>case133.jpg</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5820155328904276</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.7993734692441965</v>
+      </c>
+      <c r="E144" t="n">
+        <v>229.4210103717617</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>case23.jpg</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5507001448575567</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.7469087556197196</v>
+      </c>
+      <c r="E145" t="n">
+        <v>269.9425864883124</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>case42.jpg</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4899467770549971</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.7194789467074503</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11.51086443322134</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>case93.jpg</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.5644768856447688</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.7747194387928857</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.071067811865476</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>case72.jpg</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2838082001389854</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5635717882958108</v>
+      </c>
+      <c r="E148" t="n">
+        <v>294.4087294901427</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>case78.jpg</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.3907766990291262</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.5605350279482338</v>
+      </c>
+      <c r="E149" t="n">
+        <v>417.7708702147626</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>case43.jpg</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4074844074844075</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.7299381300156562</v>
+      </c>
+      <c r="E150" t="n">
+        <v>198.4263087395419</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>case56.jpg</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.6990675990675991</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.9725608096019625</v>
+      </c>
+      <c r="E151" t="n">
+        <v>19.81161275615895</v>
       </c>
     </row>
   </sheetData>
